--- a/Data_Sources_and_Preparation/Stationary_Analiz_TUR_GBR_841810.xlsx
+++ b/Data_Sources_and_Preparation/Stationary_Analiz_TUR_GBR_841810.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Title</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>['ITA_GBR_841810']</t>
+  </si>
+  <si>
+    <t>['TUR_GBR_841810_UV']</t>
   </si>
   <si>
     <t>['EPU_GBR']</t>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,13 +671,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-1.76657</v>
+        <v>-2.03088</v>
       </c>
       <c r="C12">
-        <v>0.39717</v>
+        <v>0.27319</v>
       </c>
       <c r="D12">
-        <v>-5.43468</v>
+        <v>-12.66322</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -685,13 +688,13 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-2.49202</v>
+        <v>-1.76657</v>
       </c>
       <c r="C13">
-        <v>0.11742</v>
+        <v>0.39717</v>
       </c>
       <c r="D13">
-        <v>-10.68008</v>
+        <v>-5.43468</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -702,13 +705,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.29814</v>
+        <v>-2.49202</v>
       </c>
       <c r="C14">
-        <v>0.92576</v>
+        <v>0.11742</v>
       </c>
       <c r="D14">
-        <v>-6.23438</v>
+        <v>-10.68008</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -719,16 +722,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.11212</v>
+        <v>-0.29814</v>
       </c>
       <c r="C15">
-        <v>0.94821</v>
+        <v>0.92576</v>
       </c>
       <c r="D15">
-        <v>-3.94311</v>
+        <v>-6.23438</v>
       </c>
       <c r="E15">
-        <v>0.00173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -736,16 +739,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.13219</v>
+        <v>-0.11212</v>
       </c>
       <c r="C16">
-        <v>0.94613</v>
+        <v>0.94821</v>
       </c>
       <c r="D16">
-        <v>-6.78426</v>
+        <v>-3.94311</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.00173</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -753,16 +756,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>-0.15482</v>
+        <v>-0.13219</v>
       </c>
       <c r="C17">
-        <v>0.94369</v>
+        <v>0.94613</v>
       </c>
       <c r="D17">
-        <v>-3.41444</v>
+        <v>-6.78426</v>
       </c>
       <c r="E17">
-        <v>0.01047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -770,16 +773,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.18347</v>
+        <v>-0.15482</v>
       </c>
       <c r="C18">
-        <v>0.94046</v>
+        <v>0.94369</v>
       </c>
       <c r="D18">
-        <v>-3.71086</v>
+        <v>-3.41444</v>
       </c>
       <c r="E18">
-        <v>0.00396</v>
+        <v>0.01047</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -787,16 +790,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.18617</v>
+        <v>-0.18347</v>
       </c>
       <c r="C19">
-        <v>0.94014</v>
+        <v>0.94046</v>
       </c>
       <c r="D19">
-        <v>-4.15425</v>
+        <v>-3.71086</v>
       </c>
       <c r="E19">
-        <v>0.00078</v>
+        <v>0.00396</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,16 +807,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06204</v>
+        <v>-0.18617</v>
       </c>
       <c r="C20">
-        <v>0.95309</v>
+        <v>0.94014</v>
       </c>
       <c r="D20">
-        <v>-5.03018</v>
+        <v>-4.15425</v>
       </c>
       <c r="E20">
-        <v>1e-05</v>
+        <v>0.00078</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,16 +824,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0684</v>
+        <v>-0.06204</v>
       </c>
       <c r="C21">
-        <v>0.9524899999999999</v>
+        <v>0.95309</v>
       </c>
       <c r="D21">
-        <v>-4.03512</v>
+        <v>-5.03018</v>
       </c>
       <c r="E21">
-        <v>0.00123</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -838,16 +841,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>2.35463</v>
+        <v>-0.0684</v>
       </c>
       <c r="C22">
-        <v>0.99898</v>
+        <v>0.9524899999999999</v>
       </c>
       <c r="D22">
-        <v>0.99656</v>
+        <v>-4.03512</v>
       </c>
       <c r="E22">
-        <v>0.99422</v>
+        <v>0.00123</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -855,16 +858,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-1.28882</v>
+        <v>2.35463</v>
       </c>
       <c r="C23">
-        <v>0.63426</v>
+        <v>0.99898</v>
       </c>
       <c r="D23">
-        <v>-2.44388</v>
+        <v>0.99656</v>
       </c>
       <c r="E23">
-        <v>0.12973</v>
+        <v>0.99422</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,16 +875,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>4.12083</v>
+        <v>-1.28882</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.63426</v>
       </c>
       <c r="D24">
-        <v>-6.93831</v>
+        <v>-2.44388</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.12973</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,16 +892,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-1.78563</v>
+        <v>4.12083</v>
       </c>
       <c r="C25">
-        <v>0.38761</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>-4.96038</v>
+        <v>-6.93831</v>
       </c>
       <c r="E25">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,16 +909,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-1.92406</v>
+        <v>-1.78563</v>
       </c>
       <c r="C26">
-        <v>0.32082</v>
+        <v>0.38761</v>
       </c>
       <c r="D26">
-        <v>-4.47209</v>
+        <v>-4.96038</v>
       </c>
       <c r="E26">
-        <v>0.00022</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,16 +926,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>-0.00601</v>
+        <v>-1.92406</v>
       </c>
       <c r="C27">
-        <v>0.95803</v>
+        <v>0.32082</v>
       </c>
       <c r="D27">
-        <v>-0.00601</v>
+        <v>-4.47209</v>
       </c>
       <c r="E27">
-        <v>0.95803</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,16 +943,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.52064</v>
+        <v>-0.00601</v>
       </c>
       <c r="C28">
-        <v>0.88792</v>
+        <v>0.95803</v>
       </c>
       <c r="D28">
-        <v>-0.52064</v>
+        <v>-0.00601</v>
       </c>
       <c r="E28">
-        <v>0.88792</v>
+        <v>0.95803</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,15 +960,32 @@
         <v>32</v>
       </c>
       <c r="B29">
+        <v>-0.52064</v>
+      </c>
+      <c r="C29">
+        <v>0.88792</v>
+      </c>
+      <c r="D29">
+        <v>-0.52064</v>
+      </c>
+      <c r="E29">
+        <v>0.88792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>-247826439352405.5</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>-247826439352405.5</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>0</v>
       </c>
     </row>
